--- a/export/export_db.xlsx
+++ b/export/export_db.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,26 +518,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>guest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Петр</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>222</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$argon2id$v=19$m=65536,t=3,p=4$5FyrtRZCyFmL8Z4T4vxfCw$wqxEEcKKZUv+pJt/YUeke7AS9YEQmAPoe51EPr6Uh0M</t>
+          <t>$argon2id$v=19$m=65536,t=3,p=4$vtc6J8RY610LoZTSGqPUWg$K1bsNN7AnZMpixzbPXqPgX6Z5vzGZd7+tdVajRE17qk</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -547,18 +547,18 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12311</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12341</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -567,72 +567,112 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Петр</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$argon2id$v=19$m=65536,t=3,p=4$vtc6J8RY610LoZTSGqPUWg$K1bsNN7AnZMpixzbPXqPgX6Z5vzGZd7+tdVajRE17qk</t>
+          <t>$argon2id$v=19$m=65536,t=3,p=4$EuIcg/Ae45xzjpHy/l9LyQ$ifF6WPgR5StmarAWHLzz6APaNcXBl1lUe50bOHAERwo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>99</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>99</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$argon2id$v=19$m=65536,t=3,p=4$+f/fW2vtndP6vxdiTCnl/A$bflqlGgfXbH0lk/Fv5Kg16togQiQzg5GUY1b/Y+Acu8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>guest</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$argon2id$v=19$m=65536,t=3,p=4$EuIcg/Ae45xzjpHy/l9LyQ$ifF6WPgR5StmarAWHLzz6APaNcXBl1lUe50bOHAERwo</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>99</t>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$argon2id$v=19$m=65536,t=3,p=4$jlEqpdQaIySkFCKEMCak9A$tmjEI22Ukot2tEoRW66C0Kr960mc3oD2effaJ7SKYUI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/export/export_db.xlsx
+++ b/export/export_db.xlsx
@@ -848,7 +848,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Буферный компьютер</t>
+          <t>Рабочий компьютер</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>

--- a/export/export_db.xlsx
+++ b/export/export_db.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,32 +487,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Чуян</t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>obi</t>
+          <t>ch</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$argon2id$v=19$m=65536,t=3,p=4$Xqv1ntOas3ZO6T0nZEyp9Q$ZCr4ZOCZYSzWGEd6mFYGvg4hOvXI2bfJK6QcDJJVfl0</t>
+          <t>$argon2id$v=19$m=65536,t=3,p=4$/j+HUGqtlZISAqAUQohxrg$4CElRsgHloEn4w5hdkX668+nKYc/QTZ30jK1Kv26wJs</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Отдел продаж</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1_pos</t>
+          <t>Руководитель</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1_disc</t>
+          <t>34-89</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>guest</t>
+          <t>user</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -532,33 +532,33 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>petr</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$argon2id$v=19$m=65536,t=3,p=4$vtc6J8RY610LoZTSGqPUWg$K1bsNN7AnZMpixzbPXqPgX6Z5vzGZd7+tdVajRE17qk</t>
+          <t>$argon2id$v=19$m=65536,t=3,p=4$sZbyXuu9F0LonTOmtFZqrQ$DhH5Kl8nEagNWBOw2nkpDuTi5ut93jXfUfarMmBb0tE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Отдел продаж</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>Старший менеджер</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34-56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -567,112 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>ivan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$argon2id$v=19$m=65536,t=3,p=4$EuIcg/Ae45xzjpHy/l9LyQ$ifF6WPgR5StmarAWHLzz6APaNcXBl1lUe50bOHAERwo</t>
+          <t>$argon2id$v=19$m=65536,t=3,p=4$+f/fW2vtndP6vxdiTCnl/A$bflqlGgfXbH0lk/Fv5Kg16togQiQzg5GUY1b/Y+Acu8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Отдел продаж</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>Менеджер</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>17</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$argon2id$v=19$m=65536,t=3,p=4$+f/fW2vtndP6vxdiTCnl/A$bflqlGgfXbH0lk/Fv5Kg16togQiQzg5GUY1b/Y+Acu8</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>18</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>guest</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$argon2id$v=19$m=65536,t=3,p=4$jlEqpdQaIySkFCKEMCak9A$tmjEI22Ukot2tEoRW66C0Kr960mc3oD2effaJ7SKYUI</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>12-56</t>
         </is>
       </c>
     </row>
@@ -687,7 +607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,6 +911,81 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>k1-1101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Отдел продаж</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>В работе</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Рабочий компьютер</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/export/export_db.xlsx
+++ b/export/export_db.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,66 +478,54 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Андрей</t>
-        </is>
-      </c>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ch</t>
+          <t>Нет пользователя</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$argon2id$v=19$m=65536,t=3,p=4$/j+HUGqtlZISAqAUQohxrg$4CElRsgHloEn4w5hdkX668+nKYc/QTZ30jK1Kv26wJs</t>
+          <t>$argon2id$v=19$m=65536,t=3,p=4$sZbyXuu9F0LonTOmtFZqrQ$DhH5Kl8n3456BOw2nkpDuTi5ut93jXfUfarMmBb0tE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Отдел продаж</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Руководитель</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>34-89</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Петр</t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>petr</t>
+          <t>ch</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$argon2id$v=19$m=65536,t=3,p=4$sZbyXuu9F0LonTOmtFZqrQ$DhH5Kl8nEagNWBOw2nkpDuTi5ut93jXfUfarMmBb0tE</t>
+          <t>$argon2id$v=19$m=65536,t=3,p=4$/j+HUGqtlZISAqAUQohxrg$4CElRsgHloEn4w5hdkX668+nKYc/QTZ30jK1Kv26wJs</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -547,50 +535,90 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Старший менеджер</t>
+          <t>Руководитель</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>34-56</t>
+          <t>34-89</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Петр</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>petr</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$argon2id$v=19$m=65536,t=3,p=4$sZbyXuu9F0LonTOmtFZqrQ$DhH5Kl8nEagNWBOw2nkpDuTi5ut93jXfUfarMmBb0tE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Отдел продаж</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Старший менеджер</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34-56</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>17</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>guest</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Иван</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>ivan</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>$argon2id$v=19$m=65536,t=3,p=4$+f/fW2vtndP6vxdiTCnl/A$bflqlGgfXbH0lk/Fv5Kg16togQiQzg5GUY1b/Y+Acu8</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Отдел продаж</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Менеджер</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>12-56</t>
         </is>
@@ -713,7 +741,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Отдел продаж</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -768,7 +796,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Рабочий компьютер</t>
+          <t>Буферный компьютер</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -783,57 +811,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>k2</t>
+          <t>k2-200-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Отдел продаж</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>3r4r4r</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>r4r4r4r</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>2015, 2018</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>6yfxz</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>456</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>54000</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>56</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -849,52 +877,68 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>k5-343-1</t>
+          <t>k1-110-1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Отдел продаж</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>Asus</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>45XCQ</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>2020, 2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>4rfcxz67uh2342</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>3456</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>В работе</t>
@@ -908,16 +952,16 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>k1-1101</t>
+          <t xml:space="preserve">bnm </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -925,51 +969,19 @@
           <t>Отдел продаж</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+          <t>hgfhj</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>В работе</t>
@@ -983,7 +995,7 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
